--- a/data/pca/factorExposure/factorExposure_2019-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1210720284028335</v>
+        <v>0.07727187778059706</v>
       </c>
       <c r="C2">
-        <v>-0.01220571498630602</v>
+        <v>0.01413378331384449</v>
       </c>
       <c r="D2">
-        <v>0.02095360508346709</v>
+        <v>-0.0399279134104327</v>
       </c>
       <c r="E2">
-        <v>-0.09717682000456648</v>
+        <v>-0.1098459805884408</v>
       </c>
       <c r="F2">
-        <v>-0.09574434609477887</v>
+        <v>0.08369871711396036</v>
       </c>
       <c r="G2">
-        <v>0.1414184863033932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08594319856769359</v>
+      </c>
+      <c r="H2">
+        <v>0.09248533462189182</v>
+      </c>
+      <c r="I2">
+        <v>-0.04114681972383818</v>
+      </c>
+      <c r="J2">
+        <v>-0.02523169175245288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2132387501895214</v>
+        <v>0.1628816982965345</v>
       </c>
       <c r="C3">
-        <v>0.08921945269659397</v>
+        <v>0.08268255910058028</v>
       </c>
       <c r="D3">
-        <v>-0.0790643819266197</v>
+        <v>0.03732969150509213</v>
       </c>
       <c r="E3">
-        <v>-0.314025050937133</v>
+        <v>-0.2405494232231366</v>
       </c>
       <c r="F3">
-        <v>-0.02503795470842607</v>
+        <v>0.301450991835596</v>
       </c>
       <c r="G3">
-        <v>0.359328647228002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.006147319151656491</v>
+      </c>
+      <c r="H3">
+        <v>0.2824114192310158</v>
+      </c>
+      <c r="I3">
+        <v>-0.1477426926465262</v>
+      </c>
+      <c r="J3">
+        <v>-0.3175336859601161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09945328208256765</v>
+        <v>0.07400732714006007</v>
       </c>
       <c r="C4">
-        <v>0.02713364341281685</v>
+        <v>0.03352819393865288</v>
       </c>
       <c r="D4">
-        <v>0.003047000240204163</v>
+        <v>-0.02476221632966382</v>
       </c>
       <c r="E4">
-        <v>-0.07464630802271544</v>
+        <v>-0.03492875420487919</v>
       </c>
       <c r="F4">
-        <v>-0.05287210182134836</v>
+        <v>0.08831443575826629</v>
       </c>
       <c r="G4">
-        <v>0.03343180088971245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03485327639053563</v>
+      </c>
+      <c r="H4">
+        <v>0.03982763146053457</v>
+      </c>
+      <c r="I4">
+        <v>-0.02749244929454162</v>
+      </c>
+      <c r="J4">
+        <v>-0.04982388377163739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01331666543553883</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003667010407231709</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-6.464336700778549e-05</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002595005986010799</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003623215613462</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01881756207276391</v>
+      </c>
+      <c r="H6">
+        <v>0.002110630321524724</v>
+      </c>
+      <c r="I6">
+        <v>0.001635891526659733</v>
+      </c>
+      <c r="J6">
+        <v>-0.000591551761461303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04326493203823292</v>
+        <v>0.03430093133639499</v>
       </c>
       <c r="C7">
-        <v>0.005033323413318328</v>
+        <v>0.01693978444897125</v>
       </c>
       <c r="D7">
-        <v>0.02382739794402936</v>
+        <v>-0.01952638119222352</v>
       </c>
       <c r="E7">
-        <v>-0.08417063699221385</v>
+        <v>-0.03301131229134207</v>
       </c>
       <c r="F7">
-        <v>0.03049615754072241</v>
+        <v>0.05060263697878022</v>
       </c>
       <c r="G7">
-        <v>0.02121353927629451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01366417416305077</v>
+      </c>
+      <c r="H7">
+        <v>0.04619798717858824</v>
+      </c>
+      <c r="I7">
+        <v>-0.003378746157178153</v>
+      </c>
+      <c r="J7">
+        <v>-0.01679139805358911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04289219113744538</v>
+        <v>0.03189458313458254</v>
       </c>
       <c r="C8">
-        <v>0.03770042030005635</v>
+        <v>0.03663901990372444</v>
       </c>
       <c r="D8">
-        <v>-0.008950381539716473</v>
+        <v>-0.006540670224154168</v>
       </c>
       <c r="E8">
-        <v>-0.07059624488337486</v>
+        <v>-0.03547535254543031</v>
       </c>
       <c r="F8">
-        <v>-0.00252381151374258</v>
+        <v>0.07779388749443968</v>
       </c>
       <c r="G8">
-        <v>0.04945246550069863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.003480004499859959</v>
+      </c>
+      <c r="H8">
+        <v>0.05597135324536968</v>
+      </c>
+      <c r="I8">
+        <v>-0.02846172268121791</v>
+      </c>
+      <c r="J8">
+        <v>-0.04162149890681911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08708550596734721</v>
+        <v>0.06368997623047765</v>
       </c>
       <c r="C9">
-        <v>0.02714731204869532</v>
+        <v>0.0341070113966269</v>
       </c>
       <c r="D9">
-        <v>0.01797919630085472</v>
+        <v>-0.02525772851325515</v>
       </c>
       <c r="E9">
-        <v>-0.06819381237010433</v>
+        <v>-0.03188632630521215</v>
       </c>
       <c r="F9">
-        <v>-0.03509391549151308</v>
+        <v>0.0894588014002043</v>
       </c>
       <c r="G9">
-        <v>0.0241739039289333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02479332232210837</v>
+      </c>
+      <c r="H9">
+        <v>0.03421421051805767</v>
+      </c>
+      <c r="I9">
+        <v>-0.008866043404684833</v>
+      </c>
+      <c r="J9">
+        <v>-0.01142674982565809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01081520116232235</v>
+        <v>0.01210492283035912</v>
       </c>
       <c r="C10">
-        <v>-0.1625926292432676</v>
+        <v>-0.1620014443334697</v>
       </c>
       <c r="D10">
-        <v>-0.01237575376543371</v>
+        <v>0.00744398189518842</v>
       </c>
       <c r="E10">
-        <v>-0.04695859523537926</v>
+        <v>-0.04684900513747849</v>
       </c>
       <c r="F10">
-        <v>-0.01096671012791752</v>
+        <v>0.03223819651283977</v>
       </c>
       <c r="G10">
-        <v>-0.005567879502422579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02078370735673621</v>
+      </c>
+      <c r="H10">
+        <v>-0.01454384298412629</v>
+      </c>
+      <c r="I10">
+        <v>-0.1189210533215874</v>
+      </c>
+      <c r="J10">
+        <v>-0.02080864237791768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05874655498908232</v>
+        <v>0.04971009515975004</v>
       </c>
       <c r="C11">
-        <v>0.003016162089037714</v>
+        <v>0.02078931540128521</v>
       </c>
       <c r="D11">
-        <v>-0.01234143036374342</v>
+        <v>-0.00589003687608386</v>
       </c>
       <c r="E11">
-        <v>-0.03846966467932818</v>
+        <v>-0.03822644794127455</v>
       </c>
       <c r="F11">
-        <v>-0.008767058863530559</v>
+        <v>0.0232637649584003</v>
       </c>
       <c r="G11">
-        <v>-0.00369235266015858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.001914298667190956</v>
+      </c>
+      <c r="H11">
+        <v>0.01836222068315167</v>
+      </c>
+      <c r="I11">
+        <v>0.01660944341870534</v>
+      </c>
+      <c r="J11">
+        <v>-0.01234894826670808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04930517642606114</v>
+        <v>0.04791684656969122</v>
       </c>
       <c r="C12">
-        <v>0.008327573149986278</v>
+        <v>0.02141214965721219</v>
       </c>
       <c r="D12">
-        <v>-0.007004502687950608</v>
+        <v>-0.006985294535559588</v>
       </c>
       <c r="E12">
-        <v>-0.02541009458359912</v>
+        <v>-0.01169082938138052</v>
       </c>
       <c r="F12">
-        <v>-0.001984681978035151</v>
+        <v>0.02167055184293387</v>
       </c>
       <c r="G12">
-        <v>0.0007302661179585518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00255696812626298</v>
+      </c>
+      <c r="H12">
+        <v>0.008246870230399796</v>
+      </c>
+      <c r="I12">
+        <v>0.02081910069877641</v>
+      </c>
+      <c r="J12">
+        <v>-0.004325239640267829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05900902579748375</v>
+        <v>0.04046070776341851</v>
       </c>
       <c r="C13">
-        <v>0.01840587517164584</v>
+        <v>0.02011592137319127</v>
       </c>
       <c r="D13">
-        <v>-0.024028673046804</v>
+        <v>-0.007127744743288443</v>
       </c>
       <c r="E13">
-        <v>-0.107913369195353</v>
+        <v>-0.08037255908413592</v>
       </c>
       <c r="F13">
-        <v>-0.02541756252342749</v>
+        <v>0.06567431872361451</v>
       </c>
       <c r="G13">
-        <v>0.05275624172467553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.004643927356251572</v>
+      </c>
+      <c r="H13">
+        <v>0.05909084529126511</v>
+      </c>
+      <c r="I13">
+        <v>-0.01493153668253502</v>
+      </c>
+      <c r="J13">
+        <v>-0.0185460330405879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03671055418709929</v>
+        <v>0.02766263820476859</v>
       </c>
       <c r="C14">
-        <v>0.00852738361827388</v>
+        <v>0.01476318789243916</v>
       </c>
       <c r="D14">
-        <v>0.01578719347545968</v>
+        <v>-0.02234642496089432</v>
       </c>
       <c r="E14">
-        <v>-0.02410665127470443</v>
+        <v>-0.0188682954901516</v>
       </c>
       <c r="F14">
-        <v>0.00385952095953502</v>
+        <v>0.03484655962947442</v>
       </c>
       <c r="G14">
-        <v>0.05091446218997356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01072248387479036</v>
+      </c>
+      <c r="H14">
+        <v>0.06018412836685252</v>
+      </c>
+      <c r="I14">
+        <v>-0.02413706145585756</v>
+      </c>
+      <c r="J14">
+        <v>0.003875027859620885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05034990243559222</v>
+        <v>0.04265069470937514</v>
       </c>
       <c r="C16">
-        <v>0.02155023360887381</v>
+        <v>0.02941153037432521</v>
       </c>
       <c r="D16">
-        <v>-0.0203371071664121</v>
+        <v>-0.0002373260590360484</v>
       </c>
       <c r="E16">
-        <v>-0.03235104248122656</v>
+        <v>-0.03093629464007333</v>
       </c>
       <c r="F16">
-        <v>-0.001551523610958837</v>
+        <v>0.0230970605728752</v>
       </c>
       <c r="G16">
-        <v>-0.0105552691178753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006111847049147886</v>
+      </c>
+      <c r="H16">
+        <v>0.01619999235714145</v>
+      </c>
+      <c r="I16">
+        <v>0.01492593273991598</v>
+      </c>
+      <c r="J16">
+        <v>-0.01130482777193081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05070310714467097</v>
+        <v>0.04422298480995354</v>
       </c>
       <c r="C19">
-        <v>0.03145949618839258</v>
+        <v>0.03531257940566091</v>
       </c>
       <c r="D19">
-        <v>-0.009601758763719073</v>
+        <v>-0.008440550278528233</v>
       </c>
       <c r="E19">
-        <v>-0.0771845481079272</v>
+        <v>-0.06115786230634416</v>
       </c>
       <c r="F19">
-        <v>0.001576048556991211</v>
+        <v>0.06911482594525926</v>
       </c>
       <c r="G19">
-        <v>0.06338666831516909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.00668357030153024</v>
+      </c>
+      <c r="H19">
+        <v>0.08594692937883504</v>
+      </c>
+      <c r="I19">
+        <v>-0.04961324105763198</v>
+      </c>
+      <c r="J19">
+        <v>-0.01654482383721132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03748059005022624</v>
+        <v>0.01918583387672548</v>
       </c>
       <c r="C20">
-        <v>0.03386792943976923</v>
+        <v>0.03386233965313962</v>
       </c>
       <c r="D20">
-        <v>0.001879805246484621</v>
+        <v>-0.01472596486094718</v>
       </c>
       <c r="E20">
-        <v>-0.066363171353144</v>
+        <v>-0.03901932579479812</v>
       </c>
       <c r="F20">
-        <v>0.01511468196480078</v>
+        <v>0.06027565628253567</v>
       </c>
       <c r="G20">
-        <v>0.04872229839499688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01415638464558901</v>
+      </c>
+      <c r="H20">
+        <v>0.07493642577491014</v>
+      </c>
+      <c r="I20">
+        <v>-0.01890301147696761</v>
+      </c>
+      <c r="J20">
+        <v>-0.04749070997861843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03735462059688344</v>
+        <v>0.01794756245716962</v>
       </c>
       <c r="C21">
-        <v>0.01587223838088612</v>
+        <v>0.02325800969509578</v>
       </c>
       <c r="D21">
-        <v>-0.01919338141813643</v>
+        <v>0.004112906756733214</v>
       </c>
       <c r="E21">
-        <v>-0.0854197494292244</v>
+        <v>-0.04254354820672555</v>
       </c>
       <c r="F21">
-        <v>-0.04573308092680007</v>
+        <v>0.06851835155076311</v>
       </c>
       <c r="G21">
-        <v>0.05628075676311258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01675887183012723</v>
+      </c>
+      <c r="H21">
+        <v>0.04592870742503759</v>
+      </c>
+      <c r="I21">
+        <v>0.004790574835191559</v>
+      </c>
+      <c r="J21">
+        <v>0.01198075835700776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04617745862584234</v>
+        <v>0.04029752268715554</v>
       </c>
       <c r="C24">
-        <v>0.01181794840368868</v>
+        <v>0.01778023164122642</v>
       </c>
       <c r="D24">
-        <v>-0.008673757261986402</v>
+        <v>-0.005961022597055294</v>
       </c>
       <c r="E24">
-        <v>-0.04753486296530993</v>
+        <v>-0.03542484359526941</v>
       </c>
       <c r="F24">
-        <v>-0.006786712531071984</v>
+        <v>0.02883921272590322</v>
       </c>
       <c r="G24">
-        <v>-0.01090013535366366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01050556262185343</v>
+      </c>
+      <c r="H24">
+        <v>0.01374301841197886</v>
+      </c>
+      <c r="I24">
+        <v>0.01107390658486056</v>
+      </c>
+      <c r="J24">
+        <v>-0.01724273847212879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04906560994422512</v>
+        <v>0.04314796187807433</v>
       </c>
       <c r="C25">
-        <v>0.00356845760595762</v>
+        <v>0.01942473867247741</v>
       </c>
       <c r="D25">
-        <v>-0.0115181235245924</v>
+        <v>-0.002806939752895207</v>
       </c>
       <c r="E25">
-        <v>-0.03853946020397173</v>
+        <v>-0.0356440373483538</v>
       </c>
       <c r="F25">
-        <v>-0.01050521400706605</v>
+        <v>0.03317037829445082</v>
       </c>
       <c r="G25">
-        <v>-0.005124233545979627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002735036519640745</v>
+      </c>
+      <c r="H25">
+        <v>0.01049621211317121</v>
+      </c>
+      <c r="I25">
+        <v>0.01485466889509582</v>
+      </c>
+      <c r="J25">
+        <v>-0.007306477272688209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.003655553175171427</v>
+        <v>0.01060804325265938</v>
       </c>
       <c r="C26">
-        <v>0.01654364517624991</v>
+        <v>0.01775035571775336</v>
       </c>
       <c r="D26">
-        <v>0.003152182544491203</v>
+        <v>0.002594076260148225</v>
       </c>
       <c r="E26">
-        <v>-0.05018772936958551</v>
+        <v>-0.04369529646820508</v>
       </c>
       <c r="F26">
-        <v>-0.02546454144663103</v>
+        <v>0.03189568638124619</v>
       </c>
       <c r="G26">
-        <v>0.02654557102483768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008688315369489899</v>
+      </c>
+      <c r="H26">
+        <v>0.03765827770385118</v>
+      </c>
+      <c r="I26">
+        <v>-5.184414038062224e-05</v>
+      </c>
+      <c r="J26">
+        <v>-0.01698310813124739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.113201070302509</v>
+        <v>0.08747096778272551</v>
       </c>
       <c r="C27">
-        <v>0.01722007705419741</v>
+        <v>0.02736084596321632</v>
       </c>
       <c r="D27">
-        <v>0.004064873880541288</v>
+        <v>-0.02888397001194915</v>
       </c>
       <c r="E27">
-        <v>-0.1120197571619937</v>
+        <v>-0.04519349328406951</v>
       </c>
       <c r="F27">
-        <v>-0.02169383691059089</v>
+        <v>0.07501274504884339</v>
       </c>
       <c r="G27">
-        <v>-0.01391683083342272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.00055285903733529</v>
+      </c>
+      <c r="H27">
+        <v>0.01372431104625635</v>
+      </c>
+      <c r="I27">
+        <v>-0.003370748557144221</v>
+      </c>
+      <c r="J27">
+        <v>-0.03080943340819934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01241561993274076</v>
+        <v>0.02248244553527981</v>
       </c>
       <c r="C28">
-        <v>-0.2392391943387399</v>
+        <v>-0.2320142766570645</v>
       </c>
       <c r="D28">
-        <v>-0.02062201982497319</v>
+        <v>0.01294480390808017</v>
       </c>
       <c r="E28">
-        <v>-0.02747889319014855</v>
+        <v>-0.03901316594538996</v>
       </c>
       <c r="F28">
-        <v>-0.01393703809905727</v>
+        <v>0.02593304431490116</v>
       </c>
       <c r="G28">
-        <v>-0.04282475589578287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02582233765127674</v>
+      </c>
+      <c r="H28">
+        <v>-0.0405378801791144</v>
+      </c>
+      <c r="I28">
+        <v>-0.1648041289414654</v>
+      </c>
+      <c r="J28">
+        <v>-0.04037853563852972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02003296762780841</v>
+        <v>0.01923819747628781</v>
       </c>
       <c r="C29">
-        <v>0.01774448495370784</v>
+        <v>0.01858717091970392</v>
       </c>
       <c r="D29">
-        <v>0.01866346081224458</v>
+        <v>-0.02096264066409025</v>
       </c>
       <c r="E29">
-        <v>-0.0332747451743118</v>
+        <v>-0.01404556363104702</v>
       </c>
       <c r="F29">
-        <v>-0.01019376834611561</v>
+        <v>0.04021217017619035</v>
       </c>
       <c r="G29">
-        <v>0.05164760186239772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01211775670309132</v>
+      </c>
+      <c r="H29">
+        <v>0.05774686336847935</v>
+      </c>
+      <c r="I29">
+        <v>-0.01358041340679677</v>
+      </c>
+      <c r="J29">
+        <v>0.01342953576328123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1045254611991202</v>
+        <v>0.09878068115393747</v>
       </c>
       <c r="C30">
-        <v>0.009714344431669329</v>
+        <v>0.03422472818838138</v>
       </c>
       <c r="D30">
-        <v>0.001819655294542948</v>
+        <v>-0.0309510637391909</v>
       </c>
       <c r="E30">
-        <v>-0.1269419448654177</v>
+        <v>-0.0888357211039502</v>
       </c>
       <c r="F30">
-        <v>-0.03524819798786092</v>
+        <v>0.07076558426354537</v>
       </c>
       <c r="G30">
-        <v>-0.06257399221104076</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01613206761888308</v>
+      </c>
+      <c r="H30">
+        <v>0.01583203762960006</v>
+      </c>
+      <c r="I30">
+        <v>0.03082812192172709</v>
+      </c>
+      <c r="J30">
+        <v>0.001716957625634969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05652433176886779</v>
+        <v>0.05888190602956284</v>
       </c>
       <c r="C31">
-        <v>0.0121067752217612</v>
+        <v>0.02013663272473457</v>
       </c>
       <c r="D31">
-        <v>0.02053782762348166</v>
+        <v>-0.01778411732953168</v>
       </c>
       <c r="E31">
-        <v>0.01974090898380096</v>
+        <v>-0.01259519662933932</v>
       </c>
       <c r="F31">
-        <v>-0.00571095225791924</v>
+        <v>-0.006151132251199409</v>
       </c>
       <c r="G31">
-        <v>0.02473044279984093</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03236585094798583</v>
+      </c>
+      <c r="H31">
+        <v>0.04636075707929519</v>
+      </c>
+      <c r="I31">
+        <v>-0.02219261339785477</v>
+      </c>
+      <c r="J31">
+        <v>0.01448735126352658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0665050248863511</v>
+        <v>0.04513802743693512</v>
       </c>
       <c r="C32">
-        <v>0.02733941810078749</v>
+        <v>0.04728519560481536</v>
       </c>
       <c r="D32">
-        <v>-0.003090576330049184</v>
+        <v>-0.018896827445899</v>
       </c>
       <c r="E32">
-        <v>-0.1235249107686173</v>
+        <v>-0.05579010315470894</v>
       </c>
       <c r="F32">
-        <v>0.004333840073754595</v>
+        <v>0.08414351630061399</v>
       </c>
       <c r="G32">
-        <v>0.04490826265812685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01494381778398843</v>
+      </c>
+      <c r="H32">
+        <v>0.0535654069158833</v>
+      </c>
+      <c r="I32">
+        <v>-0.02144141364260014</v>
+      </c>
+      <c r="J32">
+        <v>0.001140362642646588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.0691741019262504</v>
+        <v>0.05814022084863802</v>
       </c>
       <c r="C33">
-        <v>0.02838332507372405</v>
+        <v>0.04406713098753866</v>
       </c>
       <c r="D33">
-        <v>0.0008348152949681645</v>
+        <v>-0.005041253242711048</v>
       </c>
       <c r="E33">
-        <v>-0.06947054312324999</v>
+        <v>-0.06320094257534019</v>
       </c>
       <c r="F33">
-        <v>-0.04135445822600405</v>
+        <v>0.05605449959624504</v>
       </c>
       <c r="G33">
-        <v>0.03329181857246483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01561038704126128</v>
+      </c>
+      <c r="H33">
+        <v>0.05479370265966401</v>
+      </c>
+      <c r="I33">
+        <v>0.01294764411042447</v>
+      </c>
+      <c r="J33">
+        <v>-0.0113445000183073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.0470436088548252</v>
+        <v>0.0418100229223297</v>
       </c>
       <c r="C34">
-        <v>0.01131988336076886</v>
+        <v>0.02363780591531091</v>
       </c>
       <c r="D34">
-        <v>-0.008988895625424927</v>
+        <v>-0.008380289856484556</v>
       </c>
       <c r="E34">
-        <v>-0.02364031187706649</v>
+        <v>-0.02606602155718825</v>
       </c>
       <c r="F34">
-        <v>0.002959559884159278</v>
+        <v>0.02493206949825097</v>
       </c>
       <c r="G34">
-        <v>0.01260263497844948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001226473283565819</v>
+      </c>
+      <c r="H34">
+        <v>0.02120628833946995</v>
+      </c>
+      <c r="I34">
+        <v>0.01461500494629704</v>
+      </c>
+      <c r="J34">
+        <v>-0.0007063066446719295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01313482381987094</v>
+        <v>0.01459757237034259</v>
       </c>
       <c r="C36">
-        <v>-0.009808041551518973</v>
+        <v>0.001178803963921429</v>
       </c>
       <c r="D36">
-        <v>0.00455876259904407</v>
+        <v>-0.007701693777829058</v>
       </c>
       <c r="E36">
-        <v>-0.022588351155016</v>
+        <v>-0.01639529806424431</v>
       </c>
       <c r="F36">
-        <v>-0.01117928539678896</v>
+        <v>0.0247256851446879</v>
       </c>
       <c r="G36">
-        <v>0.01977478164762208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01396178481755247</v>
+      </c>
+      <c r="H36">
+        <v>0.03354129530614316</v>
+      </c>
+      <c r="I36">
+        <v>-0.008553004470210136</v>
+      </c>
+      <c r="J36">
+        <v>0.01445172407751415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05421017904249854</v>
+        <v>0.03051413403285122</v>
       </c>
       <c r="C38">
-        <v>0.002584605817916552</v>
+        <v>0.006656190535145944</v>
       </c>
       <c r="D38">
-        <v>0.02006972840034477</v>
+        <v>-0.008320211337549186</v>
       </c>
       <c r="E38">
-        <v>-0.03463089038868977</v>
+        <v>-0.02976912982247519</v>
       </c>
       <c r="F38">
-        <v>-0.01098474459221209</v>
+        <v>0.04285072679845562</v>
       </c>
       <c r="G38">
-        <v>0.03528451982671622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0218433599533108</v>
+      </c>
+      <c r="H38">
+        <v>0.02085369710483807</v>
+      </c>
+      <c r="I38">
+        <v>-0.001080246424802602</v>
+      </c>
+      <c r="J38">
+        <v>0.02786808169367809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07528159464651088</v>
+        <v>0.05860510304063712</v>
       </c>
       <c r="C39">
-        <v>0.01379232090669574</v>
+        <v>0.03504637388401013</v>
       </c>
       <c r="D39">
-        <v>-0.006238622318947902</v>
+        <v>-0.01619333553046167</v>
       </c>
       <c r="E39">
-        <v>-0.0445807828038355</v>
+        <v>-0.05231523670567158</v>
       </c>
       <c r="F39">
-        <v>-0.02746434473379839</v>
+        <v>0.03324819997142451</v>
       </c>
       <c r="G39">
-        <v>-0.00129076750086862</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0115887199676184</v>
+      </c>
+      <c r="H39">
+        <v>0.02006796404526636</v>
+      </c>
+      <c r="I39">
+        <v>0.03181638808757175</v>
+      </c>
+      <c r="J39">
+        <v>-0.006846067883790805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07226772175591178</v>
+        <v>0.0569245571411676</v>
       </c>
       <c r="C40">
-        <v>0.02902344007536629</v>
+        <v>0.0335095364375394</v>
       </c>
       <c r="D40">
-        <v>-0.01208456538072275</v>
+        <v>-0.02292664938836421</v>
       </c>
       <c r="E40">
-        <v>-0.1085066516163149</v>
+        <v>-0.09024355396096213</v>
       </c>
       <c r="F40">
-        <v>-0.03645936319893711</v>
+        <v>0.06341906764126662</v>
       </c>
       <c r="G40">
-        <v>0.09456250196452894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0007226620167075286</v>
+      </c>
+      <c r="H40">
+        <v>0.08389977223423384</v>
+      </c>
+      <c r="I40">
+        <v>-0.008952298674967741</v>
+      </c>
+      <c r="J40">
+        <v>-0.04224017740756889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003949723356213139</v>
+        <v>0.001060088793002569</v>
       </c>
       <c r="C41">
-        <v>0.01173146677906854</v>
+        <v>0.01077327809769586</v>
       </c>
       <c r="D41">
-        <v>0.01424866689643449</v>
+        <v>-0.004439356192120303</v>
       </c>
       <c r="E41">
-        <v>-0.01016624585247957</v>
+        <v>-0.007465466056532422</v>
       </c>
       <c r="F41">
-        <v>-0.02130897257974594</v>
+        <v>0.01576265065854952</v>
       </c>
       <c r="G41">
-        <v>0.0341346233120529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02499946126984123</v>
+      </c>
+      <c r="H41">
+        <v>0.0400660236311263</v>
+      </c>
+      <c r="I41">
+        <v>-0.0265802785641757</v>
+      </c>
+      <c r="J41">
+        <v>-0.003645297270467502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1321027841307178</v>
+        <v>0.2366614977433709</v>
       </c>
       <c r="C42">
-        <v>0.1800134988696361</v>
+        <v>0.117702225992327</v>
       </c>
       <c r="D42">
-        <v>-0.9227052956420135</v>
+        <v>0.9190948697914078</v>
       </c>
       <c r="E42">
-        <v>0.1422110726671855</v>
+        <v>-0.02561933968717251</v>
       </c>
       <c r="F42">
-        <v>0.01885678709935348</v>
+        <v>-0.2294955201498635</v>
       </c>
       <c r="G42">
-        <v>-0.150678433903888</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003066715393943585</v>
+      </c>
+      <c r="H42">
+        <v>-0.009660634973389226</v>
+      </c>
+      <c r="I42">
+        <v>-0.0521606395354292</v>
+      </c>
+      <c r="J42">
+        <v>-0.01179265197677348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.007471022435428852</v>
+        <v>0.002902775880020286</v>
       </c>
       <c r="C43">
-        <v>0.01504684561444671</v>
+        <v>0.01357098816660477</v>
       </c>
       <c r="D43">
-        <v>0.01375805046661851</v>
+        <v>-0.005209844955944182</v>
       </c>
       <c r="E43">
-        <v>-0.03354339150979137</v>
+        <v>-0.01776285992558597</v>
       </c>
       <c r="F43">
-        <v>0.0007273089972292769</v>
+        <v>0.02342667415100824</v>
       </c>
       <c r="G43">
-        <v>0.02804221746231766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006000334483788896</v>
+      </c>
+      <c r="H43">
+        <v>0.03852740351718224</v>
+      </c>
+      <c r="I43">
+        <v>-0.01707471830273266</v>
+      </c>
+      <c r="J43">
+        <v>-0.005469207526867137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04219834573189516</v>
+        <v>0.02807793439750179</v>
       </c>
       <c r="C44">
-        <v>0.03544222275734989</v>
+        <v>0.03152621855022555</v>
       </c>
       <c r="D44">
-        <v>-0.006745758009514206</v>
+        <v>-0.0007531839827202556</v>
       </c>
       <c r="E44">
-        <v>-0.1075741350998343</v>
+        <v>-0.08027346326309888</v>
       </c>
       <c r="F44">
-        <v>-0.07077572150458683</v>
+        <v>0.09147570994882752</v>
       </c>
       <c r="G44">
-        <v>0.148050798822345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02678545428966006</v>
+      </c>
+      <c r="H44">
+        <v>0.1183972036181465</v>
+      </c>
+      <c r="I44">
+        <v>-0.03023248157900753</v>
+      </c>
+      <c r="J44">
+        <v>-0.01015453233250077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02105489584586231</v>
+        <v>0.02134572832455127</v>
       </c>
       <c r="C46">
-        <v>0.01425323148243323</v>
+        <v>0.025185993958229</v>
       </c>
       <c r="D46">
-        <v>0.02105170103147399</v>
+        <v>-0.01864788475616062</v>
       </c>
       <c r="E46">
-        <v>-0.02303528170717271</v>
+        <v>-0.02919398435199844</v>
       </c>
       <c r="F46">
-        <v>-0.02664883368316088</v>
+        <v>0.03641959699648705</v>
       </c>
       <c r="G46">
-        <v>0.05411234103738312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01529269914189087</v>
+      </c>
+      <c r="H46">
+        <v>0.06268629833550599</v>
+      </c>
+      <c r="I46">
+        <v>-0.01974298436425838</v>
+      </c>
+      <c r="J46">
+        <v>-0.01067880328772982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08006850531711357</v>
+        <v>0.08877729546063043</v>
       </c>
       <c r="C47">
-        <v>0.007740489063470284</v>
+        <v>0.01784804361205586</v>
       </c>
       <c r="D47">
-        <v>0.02192168208221267</v>
+        <v>-0.02330401122791189</v>
       </c>
       <c r="E47">
-        <v>0.01829574656019079</v>
+        <v>0.002670520605395534</v>
       </c>
       <c r="F47">
-        <v>-0.0004904100580404921</v>
+        <v>-0.00488360458960151</v>
       </c>
       <c r="G47">
-        <v>0.0494014910154964</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0287057512064602</v>
+      </c>
+      <c r="H47">
+        <v>0.06604118008173931</v>
+      </c>
+      <c r="I47">
+        <v>-0.0299783399971668</v>
+      </c>
+      <c r="J47">
+        <v>0.0005648512367151996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01471541367535899</v>
+        <v>0.01556288451664565</v>
       </c>
       <c r="C48">
-        <v>0.01554931910903143</v>
+        <v>0.01914803764614698</v>
       </c>
       <c r="D48">
-        <v>0.01141807740935985</v>
+        <v>-0.008182488784128285</v>
       </c>
       <c r="E48">
-        <v>-0.03494734008617666</v>
+        <v>-0.01887888391446291</v>
       </c>
       <c r="F48">
-        <v>-0.01968825862126749</v>
+        <v>0.03254054644944552</v>
       </c>
       <c r="G48">
-        <v>0.01428402801425256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008537915503705844</v>
+      </c>
+      <c r="H48">
+        <v>0.02473155627473248</v>
+      </c>
+      <c r="I48">
+        <v>-0.0163892491057377</v>
+      </c>
+      <c r="J48">
+        <v>-0.003991409788144455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07805619550450814</v>
+        <v>0.0813667252933674</v>
       </c>
       <c r="C50">
-        <v>0.01981240120019678</v>
+        <v>0.03048445138006351</v>
       </c>
       <c r="D50">
-        <v>0.02489059423165498</v>
+        <v>-0.01785632279926319</v>
       </c>
       <c r="E50">
-        <v>0.02780960059445749</v>
+        <v>0.00352046986116194</v>
       </c>
       <c r="F50">
-        <v>0.001374029602313228</v>
+        <v>0.003852596686427453</v>
       </c>
       <c r="G50">
-        <v>0.02577467517665425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001200424593003599</v>
+      </c>
+      <c r="H50">
+        <v>0.05062032994710271</v>
+      </c>
+      <c r="I50">
+        <v>-0.01312281603751986</v>
+      </c>
+      <c r="J50">
+        <v>0.04720835890633041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.0699691629913454</v>
+        <v>0.04661551135670552</v>
       </c>
       <c r="C51">
-        <v>-0.01947005199154417</v>
+        <v>-0.00340149026476339</v>
       </c>
       <c r="D51">
-        <v>-0.01018196940649826</v>
+        <v>-0.009947814743155261</v>
       </c>
       <c r="E51">
-        <v>-0.0718460930990399</v>
+        <v>-0.07872370668648236</v>
       </c>
       <c r="F51">
-        <v>-0.06154150720474068</v>
+        <v>0.05351810639524873</v>
       </c>
       <c r="G51">
-        <v>0.04555182133046763</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04452205364729661</v>
+      </c>
+      <c r="H51">
+        <v>0.06205147833497129</v>
+      </c>
+      <c r="I51">
+        <v>-0.0428975050845103</v>
+      </c>
+      <c r="J51">
+        <v>-0.007168510109328777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1456281398323727</v>
+        <v>0.130239321259027</v>
       </c>
       <c r="C53">
-        <v>0.01162057874190198</v>
+        <v>0.03690048440911317</v>
       </c>
       <c r="D53">
-        <v>0.04769973536757275</v>
+        <v>-0.04691897993914543</v>
       </c>
       <c r="E53">
-        <v>0.03168748809249502</v>
+        <v>0.02432563096978128</v>
       </c>
       <c r="F53">
-        <v>0.007354344086600806</v>
+        <v>-0.0221549869093541</v>
       </c>
       <c r="G53">
-        <v>0.01498322341239981</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02273308259541825</v>
+      </c>
+      <c r="H53">
+        <v>0.01220121691994143</v>
+      </c>
+      <c r="I53">
+        <v>-0.0275545810503877</v>
+      </c>
+      <c r="J53">
+        <v>-0.05371398804795067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02609338116497976</v>
+        <v>0.02462833001683699</v>
       </c>
       <c r="C54">
-        <v>-0.004816033319645698</v>
+        <v>0.005813169759332775</v>
       </c>
       <c r="D54">
-        <v>0.02023560867256541</v>
+        <v>-0.02551050536417833</v>
       </c>
       <c r="E54">
-        <v>-0.03360324290434165</v>
+        <v>-0.01664877152656717</v>
       </c>
       <c r="F54">
-        <v>-0.03527006872150146</v>
+        <v>0.040509968605173</v>
       </c>
       <c r="G54">
-        <v>0.06219063431190604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02517015042140316</v>
+      </c>
+      <c r="H54">
+        <v>0.06294426405083318</v>
+      </c>
+      <c r="I54">
+        <v>-0.04106202858698717</v>
+      </c>
+      <c r="J54">
+        <v>0.01808606789872846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09777910556586271</v>
+        <v>0.1020136300090711</v>
       </c>
       <c r="C55">
-        <v>-0.001234888618937889</v>
+        <v>0.02077893477504838</v>
       </c>
       <c r="D55">
-        <v>0.04028020016871671</v>
+        <v>-0.02996608207110459</v>
       </c>
       <c r="E55">
-        <v>-0.004439477140657943</v>
+        <v>0.03520218145439193</v>
       </c>
       <c r="F55">
-        <v>0.0273232991788297</v>
+        <v>0.004910498884892736</v>
       </c>
       <c r="G55">
-        <v>-0.0008182444854508622</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01259773187099416</v>
+      </c>
+      <c r="H55">
+        <v>0.0259183419671568</v>
+      </c>
+      <c r="I55">
+        <v>-0.01110019949322659</v>
+      </c>
+      <c r="J55">
+        <v>-0.04323039688348952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1788732994685082</v>
+        <v>0.1700152895942748</v>
       </c>
       <c r="C56">
-        <v>-0.01705654624236833</v>
+        <v>0.01903703113209266</v>
       </c>
       <c r="D56">
-        <v>0.08357456873976921</v>
+        <v>-0.0836469585161501</v>
       </c>
       <c r="E56">
-        <v>0.05530047248459626</v>
+        <v>0.06492655803266295</v>
       </c>
       <c r="F56">
-        <v>0.0637186965552767</v>
+        <v>-0.03853075476460718</v>
       </c>
       <c r="G56">
-        <v>-0.01741559839388208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0211597960327407</v>
+      </c>
+      <c r="H56">
+        <v>-0.03097858740907116</v>
+      </c>
+      <c r="I56">
+        <v>0.0123531961007183</v>
+      </c>
+      <c r="J56">
+        <v>-0.07441394480962264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09093821661842962</v>
+        <v>0.07057109122718307</v>
       </c>
       <c r="C57">
-        <v>0.02079281724653841</v>
+        <v>0.02636398006064116</v>
       </c>
       <c r="D57">
-        <v>0.02018385133168865</v>
+        <v>-0.01276275107404829</v>
       </c>
       <c r="E57">
-        <v>-0.06619435544497228</v>
+        <v>-0.05445411928553939</v>
       </c>
       <c r="F57">
-        <v>-0.01360862363629961</v>
+        <v>0.04609135333433233</v>
       </c>
       <c r="G57">
-        <v>0.05009541529500287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.00336578465970904</v>
+      </c>
+      <c r="H57">
+        <v>0.04636544422575883</v>
+      </c>
+      <c r="I57">
+        <v>0.01205712500851571</v>
+      </c>
+      <c r="J57">
+        <v>-0.03618581984095473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1643945339888394</v>
+        <v>0.1937851092177897</v>
       </c>
       <c r="C58">
-        <v>-0.005888004203124012</v>
+        <v>0.04190629299911061</v>
       </c>
       <c r="D58">
-        <v>-0.07135305651296778</v>
+        <v>0.01378291358509188</v>
       </c>
       <c r="E58">
-        <v>-0.1347945701644351</v>
+        <v>-0.1587334944748195</v>
       </c>
       <c r="F58">
-        <v>0.08489547763351027</v>
+        <v>0.1161497404952872</v>
       </c>
       <c r="G58">
-        <v>0.292826986975521</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1797293267747977</v>
+      </c>
+      <c r="H58">
+        <v>0.3019923531660734</v>
+      </c>
+      <c r="I58">
+        <v>-0.09147726383718853</v>
+      </c>
+      <c r="J58">
+        <v>0.6150260986861039</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.001052808541067119</v>
+        <v>0.02694602893986513</v>
       </c>
       <c r="C59">
-        <v>-0.2030455654011983</v>
+        <v>-0.1977111269263115</v>
       </c>
       <c r="D59">
-        <v>0.01243761283939896</v>
+        <v>-0.02183681485444903</v>
       </c>
       <c r="E59">
-        <v>-0.04761218884970995</v>
+        <v>-0.0609276294294173</v>
       </c>
       <c r="F59">
-        <v>-0.01579007613714038</v>
+        <v>0.0216036877740263</v>
       </c>
       <c r="G59">
-        <v>-0.03606913950854599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004631525501341455</v>
+      </c>
+      <c r="H59">
+        <v>-0.02933850066126812</v>
+      </c>
+      <c r="I59">
+        <v>-0.08037381213210457</v>
+      </c>
+      <c r="J59">
+        <v>0.01644404592444174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1866517353021671</v>
+        <v>0.1834300736942388</v>
       </c>
       <c r="C60">
-        <v>-0.1127116640363927</v>
+        <v>-0.05454704089259051</v>
       </c>
       <c r="D60">
-        <v>0.0124862305351095</v>
+        <v>-0.03161543061428992</v>
       </c>
       <c r="E60">
-        <v>-0.1729794601184541</v>
+        <v>-0.203661214109102</v>
       </c>
       <c r="F60">
-        <v>-0.06803187247118327</v>
+        <v>0.08330385827426465</v>
       </c>
       <c r="G60">
-        <v>-0.1606485275808834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04625574614464606</v>
+      </c>
+      <c r="H60">
+        <v>-0.2271643225226107</v>
+      </c>
+      <c r="I60">
+        <v>0.1216706113465177</v>
+      </c>
+      <c r="J60">
+        <v>-0.0004130896818975487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04801456579109262</v>
+        <v>0.03779703811610412</v>
       </c>
       <c r="C61">
-        <v>0.004606541398223631</v>
+        <v>0.01946810291535479</v>
       </c>
       <c r="D61">
-        <v>-0.01414745611692009</v>
+        <v>-0.001786178989711331</v>
       </c>
       <c r="E61">
-        <v>-0.04569243656326374</v>
+        <v>-0.03847492647373188</v>
       </c>
       <c r="F61">
-        <v>-0.02670510160873286</v>
+        <v>0.02676136490005175</v>
       </c>
       <c r="G61">
-        <v>-0.01338928653496238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.00762862487012916</v>
+      </c>
+      <c r="H61">
+        <v>0.007067244356234074</v>
+      </c>
+      <c r="I61">
+        <v>0.03852518665697784</v>
+      </c>
+      <c r="J61">
+        <v>0.013754377452332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.041286297581803</v>
+        <v>0.02825389248970247</v>
       </c>
       <c r="C63">
-        <v>-0.008087819119255012</v>
+        <v>0.01397832758040321</v>
       </c>
       <c r="D63">
-        <v>0.01115440296169333</v>
+        <v>-0.01211739468167541</v>
       </c>
       <c r="E63">
-        <v>-0.03765862359830866</v>
+        <v>-0.02424546053135489</v>
       </c>
       <c r="F63">
-        <v>-0.00948285635309588</v>
+        <v>0.02070288525777296</v>
       </c>
       <c r="G63">
-        <v>0.01985969865694743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004005553491915796</v>
+      </c>
+      <c r="H63">
+        <v>0.04633698643126792</v>
+      </c>
+      <c r="I63">
+        <v>-0.03468933245526439</v>
+      </c>
+      <c r="J63">
+        <v>-0.03055659483278586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09114918460455568</v>
+        <v>0.06578159426283035</v>
       </c>
       <c r="C64">
-        <v>0.030690897236719</v>
+        <v>0.04101302037354741</v>
       </c>
       <c r="D64">
-        <v>0.05142264481216172</v>
+        <v>-0.03511150572978811</v>
       </c>
       <c r="E64">
-        <v>-0.05679212974939895</v>
+        <v>-0.01401057111684424</v>
       </c>
       <c r="F64">
-        <v>-0.09644725522976005</v>
+        <v>0.07243979973320937</v>
       </c>
       <c r="G64">
-        <v>-0.06014551950815539</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06561211545494866</v>
+      </c>
+      <c r="H64">
+        <v>-0.006395920563838779</v>
+      </c>
+      <c r="I64">
+        <v>-0.009891746961707496</v>
+      </c>
+      <c r="J64">
+        <v>-0.0764813466666672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01458006900702975</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004095299059720591</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>9.250309870469681e-06</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.003792510863089737</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001893862040000625</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01957102859337813</v>
+      </c>
+      <c r="H65">
+        <v>-0.001505579512747065</v>
+      </c>
+      <c r="I65">
+        <v>0.00428528955146438</v>
+      </c>
+      <c r="J65">
+        <v>-0.0005212779671224575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09925588750324452</v>
+        <v>0.07153193354996115</v>
       </c>
       <c r="C66">
-        <v>0.01921161988422816</v>
+        <v>0.04809107746523998</v>
       </c>
       <c r="D66">
-        <v>0.03001702416880174</v>
+        <v>-0.04281278276630533</v>
       </c>
       <c r="E66">
-        <v>-0.0805081052689637</v>
+        <v>-0.06671780971299143</v>
       </c>
       <c r="F66">
-        <v>-0.0481261844904152</v>
+        <v>0.04353406147997002</v>
       </c>
       <c r="G66">
-        <v>0.006524780136106747</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01295448134204585</v>
+      </c>
+      <c r="H66">
+        <v>0.01518725942765455</v>
+      </c>
+      <c r="I66">
+        <v>0.05035587672884681</v>
+      </c>
+      <c r="J66">
+        <v>-0.03606876462700038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06107763796430553</v>
+        <v>0.04086496816999673</v>
       </c>
       <c r="C67">
-        <v>-0.01895607613921058</v>
+        <v>-0.007992465388384983</v>
       </c>
       <c r="D67">
-        <v>0.009670629216132069</v>
+        <v>-0.007233713316370394</v>
       </c>
       <c r="E67">
-        <v>-0.02659382550874794</v>
+        <v>-0.0278786942236813</v>
       </c>
       <c r="F67">
-        <v>-0.009044062331751845</v>
+        <v>0.02788165861891151</v>
       </c>
       <c r="G67">
-        <v>0.03069721923335724</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02846757636814327</v>
+      </c>
+      <c r="H67">
+        <v>0.005439250682541415</v>
+      </c>
+      <c r="I67">
+        <v>0.03406135447939027</v>
+      </c>
+      <c r="J67">
+        <v>0.01268283090238191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.000570040214925176</v>
+        <v>0.03466878295029539</v>
       </c>
       <c r="C68">
-        <v>-0.2425579031357981</v>
+        <v>-0.2321536275126094</v>
       </c>
       <c r="D68">
-        <v>-0.004319779665204304</v>
+        <v>-0.01251331836895178</v>
       </c>
       <c r="E68">
-        <v>-0.03219062980465309</v>
+        <v>-0.04708803508929575</v>
       </c>
       <c r="F68">
-        <v>0.001523637418270102</v>
+        <v>0.01774191425641824</v>
       </c>
       <c r="G68">
-        <v>-0.02587868900294574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.007366566592294357</v>
+      </c>
+      <c r="H68">
+        <v>-0.03491683934984124</v>
+      </c>
+      <c r="I68">
+        <v>-0.1747464262152169</v>
+      </c>
+      <c r="J68">
+        <v>0.006513730613722992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0668053464665368</v>
+        <v>0.07031684940831678</v>
       </c>
       <c r="C69">
-        <v>0.006224865661585035</v>
+        <v>0.01570047408241982</v>
       </c>
       <c r="D69">
-        <v>0.02855463743138889</v>
+        <v>-0.02982836121396285</v>
       </c>
       <c r="E69">
-        <v>0.00253157726269863</v>
+        <v>-0.007344950838264029</v>
       </c>
       <c r="F69">
-        <v>0.0003276300456110412</v>
+        <v>-0.002217195195479988</v>
       </c>
       <c r="G69">
-        <v>0.02114132147382477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02103554492121001</v>
+      </c>
+      <c r="H69">
+        <v>0.04704362078997873</v>
+      </c>
+      <c r="I69">
+        <v>-0.004902360822526569</v>
+      </c>
+      <c r="J69">
+        <v>0.002002855655608781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.004757242322843935</v>
+        <v>0.0386842915409485</v>
       </c>
       <c r="C71">
-        <v>-0.2538397579876051</v>
+        <v>-0.2472296689739648</v>
       </c>
       <c r="D71">
-        <v>-0.008175698952754168</v>
+        <v>0.006058197111679139</v>
       </c>
       <c r="E71">
-        <v>-0.06209208980210495</v>
+        <v>-0.0779152673590881</v>
       </c>
       <c r="F71">
-        <v>-0.02028349855733469</v>
+        <v>0.01328769416828684</v>
       </c>
       <c r="G71">
-        <v>-0.1096936111451355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01923591174894463</v>
+      </c>
+      <c r="H71">
+        <v>-0.0482534084560678</v>
+      </c>
+      <c r="I71">
+        <v>-0.1497268666684225</v>
+      </c>
+      <c r="J71">
+        <v>0.01668534006808419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1142919622728593</v>
+        <v>0.1160687014148775</v>
       </c>
       <c r="C72">
-        <v>-0.01643397379747251</v>
+        <v>0.002241319065035342</v>
       </c>
       <c r="D72">
-        <v>0.02791236581636099</v>
+        <v>-0.05896361270176102</v>
       </c>
       <c r="E72">
-        <v>-0.08746502645976444</v>
+        <v>-0.06188916491740697</v>
       </c>
       <c r="F72">
-        <v>-0.01698613600763905</v>
+        <v>0.06254368155970773</v>
       </c>
       <c r="G72">
-        <v>0.03398459571918756</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03058321909751041</v>
+      </c>
+      <c r="H72">
+        <v>-0.003688147502186111</v>
+      </c>
+      <c r="I72">
+        <v>0.001021772153914587</v>
+      </c>
+      <c r="J72">
+        <v>0.1170711919146738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.280155058378868</v>
+        <v>0.2747880970830162</v>
       </c>
       <c r="C73">
-        <v>-0.2066310282410319</v>
+        <v>-0.1195316440334361</v>
       </c>
       <c r="D73">
-        <v>-0.04254360538746583</v>
+        <v>-0.006228438877606188</v>
       </c>
       <c r="E73">
-        <v>-0.3007548334717041</v>
+        <v>-0.3233122589305384</v>
       </c>
       <c r="F73">
-        <v>-0.09335840216496043</v>
+        <v>0.1169889534149303</v>
       </c>
       <c r="G73">
-        <v>-0.4018615204201764</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.10503376809829</v>
+      </c>
+      <c r="H73">
+        <v>-0.4265344657996207</v>
+      </c>
+      <c r="I73">
+        <v>0.3675267522147665</v>
+      </c>
+      <c r="J73">
+        <v>0.1096987592554248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1566099021396474</v>
+        <v>0.151714384129754</v>
       </c>
       <c r="C74">
-        <v>-0.004942420860204662</v>
+        <v>0.01834093957157906</v>
       </c>
       <c r="D74">
-        <v>0.05046980275259484</v>
+        <v>-0.04725332669275824</v>
       </c>
       <c r="E74">
-        <v>-0.006603444367698737</v>
+        <v>0.02945569489899566</v>
       </c>
       <c r="F74">
-        <v>0.04360335052002715</v>
+        <v>-0.02726611351510686</v>
       </c>
       <c r="G74">
-        <v>-0.01042432853399135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01453781616178818</v>
+      </c>
+      <c r="H74">
+        <v>-0.01732018571303659</v>
+      </c>
+      <c r="I74">
+        <v>0.01107337385048668</v>
+      </c>
+      <c r="J74">
+        <v>-0.09461708404256949</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.235169606317207</v>
+        <v>0.2425792304740929</v>
       </c>
       <c r="C75">
-        <v>-0.01023273879488942</v>
+        <v>0.0278708569911322</v>
       </c>
       <c r="D75">
-        <v>0.0700889695781742</v>
+        <v>-0.09765302307019433</v>
       </c>
       <c r="E75">
-        <v>0.1147094002641668</v>
+        <v>0.09418500927720147</v>
       </c>
       <c r="F75">
-        <v>0.06585471547588749</v>
+        <v>-0.09133313709864968</v>
       </c>
       <c r="G75">
-        <v>-0.01839746606380422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006692781905764553</v>
+      </c>
+      <c r="H75">
+        <v>-0.02006345115653587</v>
+      </c>
+      <c r="I75">
+        <v>-0.04324558316584496</v>
+      </c>
+      <c r="J75">
+        <v>-0.1206172465186064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2412305581647143</v>
+        <v>0.26245956386579</v>
       </c>
       <c r="C76">
-        <v>-0.01118287316517106</v>
+        <v>0.02063123471813314</v>
       </c>
       <c r="D76">
-        <v>0.1115077537296982</v>
+        <v>-0.1279509050366135</v>
       </c>
       <c r="E76">
-        <v>0.09106280822086477</v>
+        <v>0.1338454167400827</v>
       </c>
       <c r="F76">
-        <v>0.07281655348447091</v>
+        <v>-0.09534873005213629</v>
       </c>
       <c r="G76">
-        <v>-0.02829241074205129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04197093855610787</v>
+      </c>
+      <c r="H76">
+        <v>-0.02314846017701451</v>
+      </c>
+      <c r="I76">
+        <v>0.02808294067858647</v>
+      </c>
+      <c r="J76">
+        <v>-0.1400888415305901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1286040723059903</v>
+        <v>0.1301215479294398</v>
       </c>
       <c r="C77">
-        <v>0.01983375171190795</v>
+        <v>0.04679624651532192</v>
       </c>
       <c r="D77">
-        <v>-0.07726167193519991</v>
+        <v>0.04927021938960514</v>
       </c>
       <c r="E77">
-        <v>-0.1629253663749335</v>
+        <v>-0.1165109173212601</v>
       </c>
       <c r="F77">
-        <v>-0.01318548511290296</v>
+        <v>0.1271019469786789</v>
       </c>
       <c r="G77">
-        <v>0.1483590891962658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02560556016818555</v>
+      </c>
+      <c r="H77">
+        <v>0.1724798380006299</v>
+      </c>
+      <c r="I77">
+        <v>-0.167698073886782</v>
+      </c>
+      <c r="J77">
+        <v>-0.1021903396484489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09481042654567372</v>
+        <v>0.08947038372230927</v>
       </c>
       <c r="C78">
-        <v>0.03387783611510349</v>
+        <v>0.05620254920703738</v>
       </c>
       <c r="D78">
-        <v>-0.02416241262671808</v>
+        <v>0.001691517255079153</v>
       </c>
       <c r="E78">
-        <v>-0.06904702133353487</v>
+        <v>-0.04941601252961763</v>
       </c>
       <c r="F78">
-        <v>-0.01527673773832789</v>
+        <v>0.07245899160513743</v>
       </c>
       <c r="G78">
-        <v>-0.02384761185763736</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.00545383760034042</v>
+      </c>
+      <c r="H78">
+        <v>0.01826911699542289</v>
+      </c>
+      <c r="I78">
+        <v>-0.03237241872974161</v>
+      </c>
+      <c r="J78">
+        <v>-0.02022878636824153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07493746557696462</v>
+        <v>0.1190863209841793</v>
       </c>
       <c r="C80">
-        <v>-0.003324935594540856</v>
+        <v>-0.1401342153388806</v>
       </c>
       <c r="D80">
-        <v>-0.00839338282255356</v>
+        <v>0.1895277103259154</v>
       </c>
       <c r="E80">
-        <v>-0.0006530823258708102</v>
+        <v>0.6401239799062901</v>
       </c>
       <c r="F80">
-        <v>0.05507061040964961</v>
+        <v>0.6923484395729635</v>
       </c>
       <c r="G80">
-        <v>0.1630834729665445</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.009723199078551251</v>
+      </c>
+      <c r="H80">
+        <v>-0.1141038819012686</v>
+      </c>
+      <c r="I80">
+        <v>0.07668264501416536</v>
+      </c>
+      <c r="J80">
+        <v>0.08511130042928636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1607323990758524</v>
+        <v>0.1731518025899341</v>
       </c>
       <c r="C81">
-        <v>-0.01119734268428972</v>
+        <v>0.009317179024330186</v>
       </c>
       <c r="D81">
-        <v>0.06027948002800135</v>
+        <v>-0.08255923827672033</v>
       </c>
       <c r="E81">
-        <v>0.113436418638997</v>
+        <v>0.1070687883940147</v>
       </c>
       <c r="F81">
-        <v>0.0910089300015906</v>
+        <v>-0.0975482773533463</v>
       </c>
       <c r="G81">
-        <v>-0.01392201408853223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02237145421827715</v>
+      </c>
+      <c r="H81">
+        <v>-0.01532864420684909</v>
+      </c>
+      <c r="I81">
+        <v>-0.01994332152222305</v>
+      </c>
+      <c r="J81">
+        <v>-0.06844795574616097</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08276000325557621</v>
+        <v>0.06450366216598086</v>
       </c>
       <c r="C83">
-        <v>0.03297355185044449</v>
+        <v>0.03984097669754783</v>
       </c>
       <c r="D83">
-        <v>-0.09108091074723247</v>
+        <v>0.04159376765811706</v>
       </c>
       <c r="E83">
-        <v>-0.01980256587549636</v>
+        <v>-0.05418888396909454</v>
       </c>
       <c r="F83">
-        <v>-0.06327056507022701</v>
+        <v>0.02298941677249541</v>
       </c>
       <c r="G83">
-        <v>0.03747917768907985</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0450586227124135</v>
+      </c>
+      <c r="H83">
+        <v>0.04266974456061424</v>
+      </c>
+      <c r="I83">
+        <v>-0.02074325633299017</v>
+      </c>
+      <c r="J83">
+        <v>-0.08896171747993831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2414534650035369</v>
+        <v>0.255589548426654</v>
       </c>
       <c r="C85">
-        <v>0.05176115543477496</v>
+        <v>0.06050041821677754</v>
       </c>
       <c r="D85">
-        <v>0.06497313045882767</v>
+        <v>-0.08605233559004696</v>
       </c>
       <c r="E85">
-        <v>0.1324811501052585</v>
+        <v>0.1342603793509498</v>
       </c>
       <c r="F85">
-        <v>0.06347310116720571</v>
+        <v>-0.09128842124313126</v>
       </c>
       <c r="G85">
-        <v>0.008380442794128962</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>9.023492180349725e-05</v>
+      </c>
+      <c r="H85">
+        <v>0.02199007264604028</v>
+      </c>
+      <c r="I85">
+        <v>-0.03237549245387673</v>
+      </c>
+      <c r="J85">
+        <v>-0.1478067782337696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04719069548904135</v>
+        <v>0.02717209529248557</v>
       </c>
       <c r="C86">
-        <v>0.03644354388293935</v>
+        <v>0.0432085358693456</v>
       </c>
       <c r="D86">
-        <v>0.001191909229902855</v>
+        <v>-0.0018621117714769</v>
       </c>
       <c r="E86">
-        <v>-0.05271543854088402</v>
+        <v>-0.03100105697220152</v>
       </c>
       <c r="F86">
-        <v>0.003936720665937756</v>
+        <v>0.06178480604326234</v>
       </c>
       <c r="G86">
-        <v>0.03018059771140745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.00105002300976874</v>
+      </c>
+      <c r="H86">
+        <v>0.04620371352358044</v>
+      </c>
+      <c r="I86">
+        <v>-0.05578075500572423</v>
+      </c>
+      <c r="J86">
+        <v>0.001764335069118534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03234495356213268</v>
+        <v>0.03885325199168475</v>
       </c>
       <c r="C87">
-        <v>-0.05520858637897918</v>
+        <v>-0.02480333649226426</v>
       </c>
       <c r="D87">
-        <v>0.01563267380032151</v>
+        <v>-0.008074510057257981</v>
       </c>
       <c r="E87">
-        <v>-0.05236862512795884</v>
+        <v>-0.06775590497400208</v>
       </c>
       <c r="F87">
-        <v>-0.04887372946287277</v>
+        <v>0.05972008196346812</v>
       </c>
       <c r="G87">
-        <v>-0.1271383720359478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02519252914998293</v>
+      </c>
+      <c r="H87">
+        <v>-0.01139766374114748</v>
+      </c>
+      <c r="I87">
+        <v>0.007398503611563251</v>
+      </c>
+      <c r="J87">
+        <v>0.0789574745164853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03923322563269269</v>
+        <v>0.02572780665309255</v>
       </c>
       <c r="C88">
-        <v>0.02388054956547839</v>
+        <v>0.01743081116593735</v>
       </c>
       <c r="D88">
-        <v>0.007849573010036286</v>
+        <v>-0.01115086832379996</v>
       </c>
       <c r="E88">
-        <v>0.004823365171268788</v>
+        <v>0.02191775190364886</v>
       </c>
       <c r="F88">
-        <v>0.01593946678466862</v>
+        <v>0.01611032470203084</v>
       </c>
       <c r="G88">
-        <v>0.05227844695966466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02181659607096834</v>
+      </c>
+      <c r="H88">
+        <v>0.04587119477534459</v>
+      </c>
+      <c r="I88">
+        <v>0.02446874605533413</v>
+      </c>
+      <c r="J88">
+        <v>0.01896085779387409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01176988725926233</v>
+        <v>0.05467208411821468</v>
       </c>
       <c r="C89">
-        <v>-0.4245840753848549</v>
+        <v>-0.3890024198484985</v>
       </c>
       <c r="D89">
-        <v>-0.09612209737634053</v>
+        <v>0.02810883510535693</v>
       </c>
       <c r="E89">
-        <v>0.03966785424243035</v>
+        <v>-0.06961498969345924</v>
       </c>
       <c r="F89">
-        <v>-0.02898978782219509</v>
+        <v>-0.02902445806282361</v>
       </c>
       <c r="G89">
-        <v>0.02823719138861207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07261606726680883</v>
+      </c>
+      <c r="H89">
+        <v>-0.01003924078951481</v>
+      </c>
+      <c r="I89">
+        <v>-0.2877022244359494</v>
+      </c>
+      <c r="J89">
+        <v>-0.04789078795810796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01194766293358235</v>
+        <v>0.0326485014532361</v>
       </c>
       <c r="C90">
-        <v>-0.3058218646634152</v>
+        <v>-0.3295497445389752</v>
       </c>
       <c r="D90">
-        <v>-0.02275564779876776</v>
+        <v>0.01216340786740422</v>
       </c>
       <c r="E90">
-        <v>-0.02602579168100865</v>
+        <v>-0.03880265866597004</v>
       </c>
       <c r="F90">
-        <v>-0.01108997322880134</v>
+        <v>0.01112529364530943</v>
       </c>
       <c r="G90">
-        <v>-0.0771517190509917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02106961371619634</v>
+      </c>
+      <c r="H90">
+        <v>-0.04366582247081918</v>
+      </c>
+      <c r="I90">
+        <v>-0.2101485636171736</v>
+      </c>
+      <c r="J90">
+        <v>-0.005882006335947634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3080716493107163</v>
+        <v>0.3174339128468935</v>
       </c>
       <c r="C91">
-        <v>0.02320945056020975</v>
+        <v>0.04715564649094717</v>
       </c>
       <c r="D91">
-        <v>0.0812591429725201</v>
+        <v>-0.09784377339944374</v>
       </c>
       <c r="E91">
-        <v>0.2581220726978036</v>
+        <v>0.2154002403573244</v>
       </c>
       <c r="F91">
-        <v>0.1729098947355258</v>
+        <v>-0.1920991359893958</v>
       </c>
       <c r="G91">
-        <v>0.07076697201991894</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03991519752856965</v>
+      </c>
+      <c r="H91">
+        <v>-0.0183997465551993</v>
+      </c>
+      <c r="I91">
+        <v>-0.05582212529004938</v>
+      </c>
+      <c r="J91">
+        <v>-0.2691607339021594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.0193938895497797</v>
+        <v>0.07609958863526724</v>
       </c>
       <c r="C92">
-        <v>-0.4485418834588796</v>
+        <v>-0.4718868066236553</v>
       </c>
       <c r="D92">
-        <v>-0.1915567494953127</v>
+        <v>0.04595101131314154</v>
       </c>
       <c r="E92">
-        <v>0.1235498136552644</v>
+        <v>0.07371431330160293</v>
       </c>
       <c r="F92">
-        <v>0.1297851036353228</v>
+        <v>-0.1528745731540843</v>
       </c>
       <c r="G92">
-        <v>0.5324984456348122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01799203635241254</v>
+      </c>
+      <c r="H92">
+        <v>0.568442929415405</v>
+      </c>
+      <c r="I92">
+        <v>0.622023787259301</v>
+      </c>
+      <c r="J92">
+        <v>-0.06644106617865715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.0218198484714653</v>
+        <v>0.03409137833592354</v>
       </c>
       <c r="C93">
-        <v>-0.3660064260976422</v>
+        <v>-0.4052886072926647</v>
       </c>
       <c r="D93">
-        <v>-0.06713952751759762</v>
+        <v>0.03220582826834581</v>
       </c>
       <c r="E93">
-        <v>0.05427455777534456</v>
+        <v>-0.02899710710579509</v>
       </c>
       <c r="F93">
-        <v>0.0236594777050255</v>
+        <v>-0.05718423476317011</v>
       </c>
       <c r="G93">
-        <v>-0.01005414829140477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04079139722975964</v>
+      </c>
+      <c r="H93">
+        <v>-0.05090900266103007</v>
+      </c>
+      <c r="I93">
+        <v>-0.2072546336348677</v>
+      </c>
+      <c r="J93">
+        <v>-0.02917896227011014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2948076703377748</v>
+        <v>0.318940931653513</v>
       </c>
       <c r="C94">
-        <v>-0.03043124045370153</v>
+        <v>0.007960674386320256</v>
       </c>
       <c r="D94">
-        <v>0.05963282716296024</v>
+        <v>-0.1479269146728694</v>
       </c>
       <c r="E94">
-        <v>0.3539861665541403</v>
+        <v>0.2379035233924648</v>
       </c>
       <c r="F94">
-        <v>0.4493295095255666</v>
+        <v>-0.2864026206807416</v>
       </c>
       <c r="G94">
-        <v>-0.1076794464678161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1903040733488195</v>
+      </c>
+      <c r="H94">
+        <v>0.04018367436241362</v>
+      </c>
+      <c r="I94">
+        <v>-0.1803795120291353</v>
+      </c>
+      <c r="J94">
+        <v>0.446639329108076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.199093455078463</v>
+        <v>0.1436064632663404</v>
       </c>
       <c r="C95">
-        <v>-0.03114515906297665</v>
+        <v>0.06193450228489034</v>
       </c>
       <c r="D95">
-        <v>0.03884320884448848</v>
+        <v>-0.04192150254657402</v>
       </c>
       <c r="E95">
-        <v>0.4720719590231711</v>
+        <v>0.004424212116837908</v>
       </c>
       <c r="F95">
-        <v>-0.7977743736848982</v>
+        <v>-0.05736687526466979</v>
       </c>
       <c r="G95">
-        <v>0.1015205092067452</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9332388030880513</v>
+      </c>
+      <c r="H95">
+        <v>-0.04018837223165534</v>
+      </c>
+      <c r="I95">
+        <v>0.04524271313891677</v>
+      </c>
+      <c r="J95">
+        <v>0.223385812373843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2165212269855256</v>
+        <v>0.2077495973140753</v>
       </c>
       <c r="C98">
-        <v>-0.1314995066600381</v>
+        <v>-0.07141275036492821</v>
       </c>
       <c r="D98">
-        <v>-0.03379411304759249</v>
+        <v>0.007199511780017107</v>
       </c>
       <c r="E98">
-        <v>-0.1039667796743782</v>
+        <v>-0.1906960994321116</v>
       </c>
       <c r="F98">
-        <v>-0.05537368123462556</v>
+        <v>0.02969207958992109</v>
       </c>
       <c r="G98">
-        <v>-0.2441436417602731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.04750735862576724</v>
+      </c>
+      <c r="H98">
+        <v>-0.2929403800385973</v>
+      </c>
+      <c r="I98">
+        <v>0.22321885713485</v>
+      </c>
+      <c r="J98">
+        <v>0.001775489238736792</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01982265305826577</v>
+        <v>0.01266513592774866</v>
       </c>
       <c r="C101">
-        <v>0.01802557139255379</v>
+        <v>0.02918653972086167</v>
       </c>
       <c r="D101">
-        <v>0.02021546904486908</v>
+        <v>-0.02651266573577689</v>
       </c>
       <c r="E101">
-        <v>-0.03394296759003672</v>
+        <v>-0.03276426141564305</v>
       </c>
       <c r="F101">
-        <v>-0.01004240411947514</v>
+        <v>0.05911022422997781</v>
       </c>
       <c r="G101">
-        <v>0.0515931829713838</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01065884001464841</v>
+      </c>
+      <c r="H101">
+        <v>0.1151371903741338</v>
+      </c>
+      <c r="I101">
+        <v>-0.01163188975198861</v>
+      </c>
+      <c r="J101">
+        <v>0.146230425076288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1203570192813435</v>
+        <v>0.1225125406052448</v>
       </c>
       <c r="C102">
-        <v>0.005575881343378573</v>
+        <v>0.03022806342864318</v>
       </c>
       <c r="D102">
-        <v>0.04989684680975592</v>
+        <v>-0.0511772672786486</v>
       </c>
       <c r="E102">
-        <v>0.07782176736395022</v>
+        <v>0.07822950803735552</v>
       </c>
       <c r="F102">
-        <v>0.00320001392506227</v>
+        <v>-0.04524629861925993</v>
       </c>
       <c r="G102">
-        <v>0.001284966260749877</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02622687557045231</v>
+      </c>
+      <c r="H102">
+        <v>-0.007498582097593147</v>
+      </c>
+      <c r="I102">
+        <v>-0.03435473836452557</v>
+      </c>
+      <c r="J102">
+        <v>-0.05288289677319739</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01702644025773248</v>
+        <v>0.02538368241245226</v>
       </c>
       <c r="C103">
-        <v>-0.001658814005215892</v>
+        <v>0.003979074355549998</v>
       </c>
       <c r="D103">
-        <v>0.01844713251110187</v>
+        <v>-0.01724672159342258</v>
       </c>
       <c r="E103">
-        <v>0.02745227378298879</v>
+        <v>0.030023706333101</v>
       </c>
       <c r="F103">
-        <v>0.02002054430519013</v>
+        <v>-0.001746103580709598</v>
       </c>
       <c r="G103">
-        <v>-0.01237850658838722</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01434275457435358</v>
+      </c>
+      <c r="H103">
+        <v>-0.0009344329812356719</v>
+      </c>
+      <c r="I103">
+        <v>-0.02397005492722147</v>
+      </c>
+      <c r="J103">
+        <v>-0.007618961925651846</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
